--- a/template/template 4 rows.xlsx
+++ b/template/template 4 rows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISK3F\PycharmProjects\HelloWorld\demoprojects\Event-Schedule-Builder-main\Event-Schedule-Builder-main\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC01C37B-8392-4786-AE39-D5EB99CBA0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7A897-FBD7-4DFF-A5CC-BFBC551BC4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="270" windowWidth="14850" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -86,12 +95,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -372,39 +473,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
     <col min="5" max="5" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
